--- a/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Cuentas por cobrar segunda parte\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Facturación Cemento\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Feriado</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>17/08/2022</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>

--- a/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Feriado</t>
   </si>
@@ -35,7 +35,25 @@
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>17/08/2022</t>
+    <t>17/07/2022</t>
+  </si>
+  <si>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>17/07/2026</t>
+  </si>
+  <si>
+    <t>17/07/2027</t>
+  </si>
+  <si>
+    <t>17/07/2028</t>
   </si>
 </sst>
 </file>
@@ -357,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +402,45 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
@@ -50,10 +50,10 @@
     <t>17/07/2026</t>
   </si>
   <si>
-    <t>17/07/2027</t>
-  </si>
-  <si>
     <t>17/07/2028</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,12 +424,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
@@ -53,7 +53,7 @@
     <t>17/07/2028</t>
   </si>
   <si>
-    <t>18/08/2022</t>
+    <t>19/08/2022</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
+++ b/Robot Facturación Cemento/Data/Dia_Feriado.xlsx
@@ -53,7 +53,7 @@
     <t>17/07/2028</t>
   </si>
   <si>
-    <t>19/08/2022</t>
+    <t>18/08/2022</t>
   </si>
 </sst>
 </file>
